--- a/Calculs/DataBase_template_V2.xlsx
+++ b/Calculs/DataBase_template_V2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Citallios\Calculs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04640330-8384-4829-9FFA-30734AAED878}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A112AECA-7358-46C6-AD18-70FCCBD475FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
@@ -89,15 +89,6 @@
     <t>nf</t>
   </si>
   <si>
-    <t>m_els_1</t>
-  </si>
-  <si>
-    <t>m_els_2</t>
-  </si>
-  <si>
-    <t>m_feu</t>
-  </si>
-  <si>
     <t>B</t>
   </si>
   <si>
@@ -153,6 +144,15 @@
   </si>
   <si>
     <t>m_elu_2</t>
+  </si>
+  <si>
+    <t>m_els_1_1</t>
+  </si>
+  <si>
+    <t>m_feu_1</t>
+  </si>
+  <si>
+    <t>m_els_2_1</t>
   </si>
 </sst>
 </file>
@@ -1023,17 +1023,17 @@
   <dimension ref="A1:Y27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB9" sqref="AB9"/>
+      <selection activeCell="AA61" sqref="AA61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -1090,33 +1090,33 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="V1" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="W1" t="s">
+        <v>35</v>
+      </c>
+      <c r="X1" t="s">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
       <c r="Y1" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C2">
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E2">
         <v>500</v>
@@ -1176,25 +1176,25 @@
         <v>49.92</v>
       </c>
       <c r="X2">
+        <v>38.13888</v>
+      </c>
+      <c r="Y2">
         <f>U2+V2</f>
-        <v>38.13888</v>
-      </c>
-      <c r="Y2">
         <v>38.13888</v>
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>500</v>
@@ -1254,25 +1254,25 @@
         <v>137.5</v>
       </c>
       <c r="X3">
-        <f t="shared" ref="X3:X27" si="0">U3+V3</f>
         <v>105.04999999999998</v>
       </c>
       <c r="Y3">
+        <f>U3+V3</f>
         <v>105.04999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C4">
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E4">
         <v>500</v>
@@ -1332,25 +1332,25 @@
         <v>52.480000000000004</v>
       </c>
       <c r="X4">
-        <f t="shared" si="0"/>
         <v>40.094720000000002</v>
       </c>
       <c r="Y4">
+        <f>U4+V4</f>
         <v>40.094720000000002</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5">
         <v>500</v>
@@ -1410,25 +1410,25 @@
         <v>99.000000000000014</v>
       </c>
       <c r="X5">
-        <f t="shared" si="0"/>
         <v>75.63600000000001</v>
       </c>
       <c r="Y5">
+        <f>U5+V5</f>
         <v>75.63600000000001</v>
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C6">
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E6">
         <v>500</v>
@@ -1488,25 +1488,25 @@
         <v>51.2</v>
       </c>
       <c r="X6">
-        <f t="shared" si="0"/>
         <v>39.116799999999998</v>
       </c>
       <c r="Y6">
+        <f>U6+V6</f>
         <v>39.116799999999998</v>
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E7">
         <v>500</v>
@@ -1566,25 +1566,25 @@
         <v>165</v>
       </c>
       <c r="X7">
-        <f t="shared" si="0"/>
         <v>126.06</v>
       </c>
       <c r="Y7">
+        <f>U7+V7</f>
         <v>126.06</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8">
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E8">
         <v>500</v>
@@ -1644,25 +1644,25 @@
         <v>89.600000000000009</v>
       </c>
       <c r="X8">
-        <f t="shared" si="0"/>
         <v>68.454400000000007</v>
       </c>
       <c r="Y8">
+        <f>U8+V8</f>
         <v>68.454400000000007</v>
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E9">
         <v>500</v>
@@ -1722,25 +1722,25 @@
         <v>121.00000000000001</v>
       </c>
       <c r="X9">
-        <f t="shared" si="0"/>
         <v>92.444000000000003</v>
       </c>
       <c r="Y9">
+        <f>U9+V9</f>
         <v>92.444000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E10">
         <v>500</v>
@@ -1800,25 +1800,25 @@
         <v>9.984</v>
       </c>
       <c r="X10">
-        <f t="shared" si="0"/>
         <v>7.6277759999999999</v>
       </c>
       <c r="Y10">
+        <f>U10+V10</f>
         <v>7.6277759999999999</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C11">
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E11">
         <v>500</v>
@@ -1878,25 +1878,25 @@
         <v>33</v>
       </c>
       <c r="X11">
-        <f t="shared" si="0"/>
         <v>25.211999999999996</v>
       </c>
       <c r="Y11">
+        <f>U11+V11</f>
         <v>25.211999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C12">
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E12">
         <v>500</v>
@@ -1956,25 +1956,25 @@
         <v>11.52</v>
       </c>
       <c r="X12">
-        <f t="shared" si="0"/>
         <v>8.8012799999999984</v>
       </c>
       <c r="Y12">
+        <f>U12+V12</f>
         <v>8.8012799999999984</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C13">
         <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E13">
         <v>500</v>
@@ -2034,25 +2034,25 @@
         <v>121.00000000000001</v>
       </c>
       <c r="X13">
-        <f t="shared" si="0"/>
         <v>92.444000000000003</v>
       </c>
       <c r="Y13">
+        <f>U13+V13</f>
         <v>92.444000000000003</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E14">
         <v>500</v>
@@ -2112,25 +2112,25 @@
         <v>72.960000000000008</v>
       </c>
       <c r="X14">
-        <f t="shared" si="0"/>
         <v>55.741440000000004</v>
       </c>
       <c r="Y14">
+        <f>U14+V14</f>
         <v>55.741440000000004</v>
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C15">
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E15">
         <v>500</v>
@@ -2190,25 +2190,25 @@
         <v>159.5</v>
       </c>
       <c r="X15">
-        <f t="shared" si="0"/>
         <v>121.858</v>
       </c>
       <c r="Y15">
+        <f>U15+V15</f>
         <v>121.858</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C16">
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E16">
         <v>500</v>
@@ -2268,25 +2268,25 @@
         <v>57.6</v>
       </c>
       <c r="X16">
-        <f t="shared" si="0"/>
         <v>44.006399999999999</v>
       </c>
       <c r="Y16">
+        <f>U16+V16</f>
         <v>44.006399999999999</v>
       </c>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C17">
         <v>25</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E17">
         <v>500</v>
@@ -2346,25 +2346,25 @@
         <v>47.36</v>
       </c>
       <c r="X17">
-        <f t="shared" si="0"/>
         <v>36.183039999999998</v>
       </c>
       <c r="Y17">
+        <f>U17+V17</f>
         <v>36.183039999999998</v>
       </c>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C18">
         <v>25</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>500</v>
@@ -2424,25 +2424,25 @@
         <v>165</v>
       </c>
       <c r="X18">
-        <f t="shared" si="0"/>
         <v>126.06</v>
       </c>
       <c r="Y18">
+        <f>U18+V18</f>
         <v>126.06</v>
       </c>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C19">
         <v>25</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E19">
         <v>500</v>
@@ -2502,25 +2502,25 @@
         <v>96</v>
       </c>
       <c r="X19">
-        <f t="shared" si="0"/>
         <v>73.343999999999994</v>
       </c>
       <c r="Y19">
+        <f>U19+V19</f>
         <v>73.343999999999994</v>
       </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C20">
         <v>25</v>
       </c>
       <c r="D20" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E20">
         <v>500</v>
@@ -2580,25 +2580,25 @@
         <v>121.00000000000001</v>
       </c>
       <c r="X20">
-        <f t="shared" si="0"/>
         <v>92.444000000000003</v>
       </c>
       <c r="Y20">
+        <f>U20+V20</f>
         <v>92.444000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C21">
         <v>25</v>
       </c>
       <c r="D21" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E21">
         <v>500</v>
@@ -2658,25 +2658,25 @@
         <v>3.5839999999999996</v>
       </c>
       <c r="X21">
-        <f t="shared" si="0"/>
         <v>2.7381759999999997</v>
       </c>
       <c r="Y21">
+        <f>U21+V21</f>
         <v>2.7381759999999997</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C22">
         <v>25</v>
       </c>
       <c r="D22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E22">
         <v>500</v>
@@ -2736,25 +2736,25 @@
         <v>190</v>
       </c>
       <c r="X22">
-        <f t="shared" si="0"/>
         <v>25.211999999999996</v>
       </c>
       <c r="Y22">
+        <f>U22+V22</f>
         <v>25.211999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>500</v>
@@ -2814,25 +2814,25 @@
         <v>9.7279999999999998</v>
       </c>
       <c r="X23">
-        <f t="shared" si="0"/>
         <v>7.4321919999999997</v>
       </c>
       <c r="Y23">
+        <f>U23+V23</f>
         <v>7.4321919999999997</v>
       </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C24">
         <v>25</v>
       </c>
       <c r="D24" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E24">
         <v>500</v>
@@ -2892,25 +2892,25 @@
         <v>121.00000000000001</v>
       </c>
       <c r="X24">
-        <f t="shared" si="0"/>
         <v>92.444000000000003</v>
       </c>
       <c r="Y24">
+        <f>U24+V24</f>
         <v>92.444000000000003</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B25" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C25">
         <v>25</v>
       </c>
       <c r="D25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E25">
         <v>500</v>
@@ -2970,25 +2970,25 @@
         <v>96</v>
       </c>
       <c r="X25">
-        <f t="shared" si="0"/>
         <v>73.343999999999994</v>
       </c>
       <c r="Y25">
+        <f>U25+V25</f>
         <v>73.343999999999994</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E26">
         <v>500</v>
@@ -3048,25 +3048,25 @@
         <v>159.5</v>
       </c>
       <c r="X26">
-        <f t="shared" si="0"/>
         <v>121.858</v>
       </c>
       <c r="Y26">
+        <f>U26+V26</f>
         <v>121.858</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C27">
         <v>25</v>
       </c>
       <c r="D27" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E27">
         <v>500</v>
@@ -3126,10 +3126,10 @@
         <v>47.36</v>
       </c>
       <c r="X27">
-        <f t="shared" si="0"/>
         <v>36.183039999999998</v>
       </c>
       <c r="Y27">
+        <f>U27+V27</f>
         <v>36.183039999999998</v>
       </c>
     </row>

--- a/Calculs/DataBase_template_V2.xlsx
+++ b/Calculs/DataBase_template_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Citallios\Calculs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A112AECA-7358-46C6-AD18-70FCCBD475FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166E58DF-EBCD-4D16-B260-AB333CA1D54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
+    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase_template" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="43">
   <si>
     <t>fck</t>
   </si>
@@ -153,12 +153,24 @@
   </si>
   <si>
     <t>m_els_2_1</t>
+  </si>
+  <si>
+    <t>Mg+g'</t>
+  </si>
+  <si>
+    <t>Mq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vérinage </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -301,7 +313,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -481,6 +493,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -598,7 +616,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -641,12 +659,15 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="33" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20 % - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20 % - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -679,6 +700,7 @@
     <cellStyle name="Neutre" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Pourcentage" xfId="42" builtinId="5"/>
     <cellStyle name="Satisfaisant" xfId="6" builtinId="26" customBuiltin="1"/>
     <cellStyle name="Sortie" xfId="10" builtinId="21" customBuiltin="1"/>
     <cellStyle name="Texte explicatif" xfId="16" builtinId="53" customBuiltin="1"/>
@@ -1020,15 +1042,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054D0C79-7D52-471E-B026-05BF71C3F576}">
-  <dimension ref="A1:Y27"/>
+  <dimension ref="A1:AD27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA61" sqref="AA61"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A8" sqref="A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1090,22 +1113,31 @@
         <v>17</v>
       </c>
       <c r="U1" t="s">
+        <v>40</v>
+      </c>
+      <c r="V1" t="s">
+        <v>41</v>
+      </c>
+      <c r="W1" t="s">
+        <v>42</v>
+      </c>
+      <c r="X1" t="s">
         <v>37</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" t="s">
         <v>39</v>
       </c>
-      <c r="W1" t="s">
+      <c r="Z1" t="s">
         <v>35</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AA1" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AB1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1166,24 +1198,39 @@
       <c r="T2">
         <v>1</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="2">
         <v>29.253119999999999</v>
       </c>
       <c r="V2">
         <v>8.8857599999999994</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X2" s="2">
+        <f>U2*(1-W2)</f>
+        <v>14.62656</v>
+      </c>
+      <c r="Y2" s="2">
+        <f>U2*W2 + V2</f>
+        <v>23.512319999999999</v>
+      </c>
+      <c r="Z2">
         <v>49.92</v>
       </c>
-      <c r="X2">
+      <c r="AA2">
         <v>38.13888</v>
       </c>
-      <c r="Y2">
-        <f>U2+V2</f>
+      <c r="AB2">
+        <f t="shared" ref="AB2:AB27" si="0">X2+Y2</f>
         <v>38.13888</v>
       </c>
+      <c r="AD2">
+        <f>U2*1.35+V2*1.5</f>
+        <v>52.820352</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1244,24 +1291,35 @@
       <c r="T3">
         <v>1</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="2">
         <v>80.574999999999989</v>
       </c>
       <c r="V3">
         <v>24.474999999999998</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X3" s="2">
+        <f t="shared" ref="X3:X27" si="1">U3*(1-W3)</f>
+        <v>40.287499999999994</v>
+      </c>
+      <c r="Y3" s="2">
+        <f t="shared" ref="Y3:Y27" si="2">U3*W3 + V3</f>
+        <v>64.762499999999989</v>
+      </c>
+      <c r="Z3">
         <v>137.5</v>
       </c>
-      <c r="X3">
+      <c r="AA3">
         <v>105.04999999999998</v>
       </c>
-      <c r="Y3">
-        <f>U3+V3</f>
+      <c r="AB3">
+        <f t="shared" si="0"/>
         <v>105.04999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1322,24 +1380,35 @@
       <c r="T4">
         <v>1</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="2">
         <v>30.75328</v>
       </c>
       <c r="V4">
         <v>9.3414400000000004</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X4" s="2">
+        <f t="shared" si="1"/>
+        <v>15.37664</v>
+      </c>
+      <c r="Y4" s="2">
+        <f t="shared" si="2"/>
+        <v>24.71808</v>
+      </c>
+      <c r="Z4">
         <v>52.480000000000004</v>
       </c>
-      <c r="X4">
+      <c r="AA4">
         <v>40.094720000000002</v>
       </c>
-      <c r="Y4">
-        <f>U4+V4</f>
+      <c r="AB4">
+        <f t="shared" si="0"/>
         <v>40.094720000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1400,24 +1469,35 @@
       <c r="T5">
         <v>1</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="2">
         <v>58.014000000000003</v>
       </c>
       <c r="V5">
         <v>17.622000000000003</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="X5" s="2">
+        <f t="shared" si="1"/>
+        <v>43.5105</v>
+      </c>
+      <c r="Y5" s="2">
+        <f t="shared" si="2"/>
+        <v>32.125500000000002</v>
+      </c>
+      <c r="Z5">
         <v>99.000000000000014</v>
       </c>
-      <c r="X5">
+      <c r="AA5">
         <v>75.63600000000001</v>
       </c>
-      <c r="Y5">
-        <f>U5+V5</f>
-        <v>75.63600000000001</v>
+      <c r="AB5">
+        <f t="shared" si="0"/>
+        <v>75.635999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1478,24 +1558,35 @@
       <c r="T6">
         <v>1</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="2">
         <v>30.0032</v>
       </c>
       <c r="V6">
         <v>9.1135999999999999</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X6" s="2">
+        <f t="shared" si="1"/>
+        <v>15.0016</v>
+      </c>
+      <c r="Y6" s="2">
+        <f t="shared" si="2"/>
+        <v>24.115200000000002</v>
+      </c>
+      <c r="Z6">
         <v>51.2</v>
       </c>
-      <c r="X6">
+      <c r="AA6">
         <v>39.116799999999998</v>
       </c>
-      <c r="Y6">
-        <f>U6+V6</f>
+      <c r="AB6">
+        <f t="shared" si="0"/>
         <v>39.116799999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1556,24 +1647,35 @@
       <c r="T7">
         <v>1</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="2">
         <v>96.69</v>
       </c>
       <c r="V7">
         <v>29.369999999999997</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X7" s="2">
+        <f t="shared" si="1"/>
+        <v>48.344999999999999</v>
+      </c>
+      <c r="Y7" s="2">
+        <f t="shared" si="2"/>
+        <v>77.715000000000003</v>
+      </c>
+      <c r="Z7">
         <v>165</v>
       </c>
-      <c r="X7">
+      <c r="AA7">
         <v>126.06</v>
       </c>
-      <c r="Y7">
-        <f>U7+V7</f>
+      <c r="AB7">
+        <f t="shared" si="0"/>
         <v>126.06</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1634,24 +1736,35 @@
       <c r="T8">
         <v>1</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="2">
         <v>52.505600000000001</v>
       </c>
       <c r="V8">
         <v>15.9488</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X8" s="2">
+        <f t="shared" si="1"/>
+        <v>26.252800000000001</v>
+      </c>
+      <c r="Y8" s="2">
+        <f t="shared" si="2"/>
+        <v>42.201599999999999</v>
+      </c>
+      <c r="Z8">
         <v>89.600000000000009</v>
       </c>
-      <c r="X8">
+      <c r="AA8">
         <v>68.454400000000007</v>
       </c>
-      <c r="Y8">
-        <f>U8+V8</f>
-        <v>68.454400000000007</v>
+      <c r="AB8">
+        <f t="shared" si="0"/>
+        <v>68.454399999999993</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1712,24 +1825,35 @@
       <c r="T9">
         <v>1</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="2">
         <v>70.906000000000006</v>
       </c>
       <c r="V9">
         <v>21.538</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="X9" s="2">
+        <f t="shared" si="1"/>
+        <v>53.179500000000004</v>
+      </c>
+      <c r="Y9" s="2">
+        <f t="shared" si="2"/>
+        <v>39.264499999999998</v>
+      </c>
+      <c r="Z9">
         <v>121.00000000000001</v>
       </c>
-      <c r="X9">
+      <c r="AA9">
         <v>92.444000000000003</v>
       </c>
-      <c r="Y9">
-        <f>U9+V9</f>
+      <c r="AB9">
+        <f t="shared" si="0"/>
         <v>92.444000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1790,24 +1914,35 @@
       <c r="T10">
         <v>1</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="2">
         <v>5.8506239999999998</v>
       </c>
       <c r="V10">
         <v>1.7771519999999998</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="3">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2">
+        <f t="shared" si="1"/>
+        <v>5.8506239999999998</v>
+      </c>
+      <c r="Y10" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7771519999999998</v>
+      </c>
+      <c r="Z10">
         <v>9.984</v>
       </c>
-      <c r="X10">
+      <c r="AA10">
         <v>7.6277759999999999</v>
       </c>
-      <c r="Y10">
-        <f>U10+V10</f>
+      <c r="AB10">
+        <f t="shared" si="0"/>
         <v>7.6277759999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -1868,24 +2003,35 @@
       <c r="T11">
         <v>1</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="2">
         <v>19.337999999999997</v>
       </c>
       <c r="V11">
         <v>5.8739999999999997</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="3">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2">
+        <f t="shared" si="1"/>
+        <v>19.337999999999997</v>
+      </c>
+      <c r="Y11" s="2">
+        <f t="shared" si="2"/>
+        <v>5.8739999999999997</v>
+      </c>
+      <c r="Z11">
         <v>33</v>
       </c>
-      <c r="X11">
+      <c r="AA11">
         <v>25.211999999999996</v>
       </c>
-      <c r="Y11">
-        <f>U11+V11</f>
+      <c r="AB11">
+        <f t="shared" si="0"/>
         <v>25.211999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1946,24 +2092,35 @@
       <c r="T12">
         <v>1</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="2">
         <v>6.7507199999999994</v>
       </c>
       <c r="V12">
         <v>2.0505599999999999</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2">
+        <f t="shared" si="1"/>
+        <v>6.7507199999999994</v>
+      </c>
+      <c r="Y12" s="2">
+        <f t="shared" si="2"/>
+        <v>2.0505599999999999</v>
+      </c>
+      <c r="Z12">
         <v>11.52</v>
       </c>
-      <c r="X12">
+      <c r="AA12">
         <v>8.8012799999999984</v>
       </c>
-      <c r="Y12">
-        <f>U12+V12</f>
+      <c r="AB12">
+        <f t="shared" si="0"/>
         <v>8.8012799999999984</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -2024,24 +2181,35 @@
       <c r="T13">
         <v>1</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="2">
         <v>70.906000000000006</v>
       </c>
       <c r="V13">
         <v>21.538</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2">
+        <f t="shared" si="1"/>
+        <v>70.906000000000006</v>
+      </c>
+      <c r="Y13" s="2">
+        <f t="shared" si="2"/>
+        <v>21.538</v>
+      </c>
+      <c r="Z13">
         <v>121.00000000000001</v>
       </c>
-      <c r="X13">
+      <c r="AA13">
         <v>92.444000000000003</v>
       </c>
-      <c r="Y13">
-        <f>U13+V13</f>
+      <c r="AB13">
+        <f t="shared" si="0"/>
         <v>92.444000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -2102,24 +2270,35 @@
       <c r="T14">
         <v>1</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="2">
         <v>42.754560000000005</v>
       </c>
       <c r="V14">
         <v>12.986880000000001</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="3">
+        <v>0</v>
+      </c>
+      <c r="X14" s="2">
+        <f t="shared" si="1"/>
+        <v>42.754560000000005</v>
+      </c>
+      <c r="Y14" s="2">
+        <f t="shared" si="2"/>
+        <v>12.986880000000001</v>
+      </c>
+      <c r="Z14">
         <v>72.960000000000008</v>
       </c>
-      <c r="X14">
+      <c r="AA14">
         <v>55.741440000000004</v>
       </c>
-      <c r="Y14">
-        <f>U14+V14</f>
+      <c r="AB14">
+        <f t="shared" si="0"/>
         <v>55.741440000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -2180,24 +2359,35 @@
       <c r="T15">
         <v>1</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="2">
         <v>93.466999999999999</v>
       </c>
       <c r="V15">
         <v>28.390999999999998</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+      <c r="X15" s="2">
+        <f t="shared" si="1"/>
+        <v>93.466999999999999</v>
+      </c>
+      <c r="Y15" s="2">
+        <f t="shared" si="2"/>
+        <v>28.390999999999998</v>
+      </c>
+      <c r="Z15">
         <v>159.5</v>
       </c>
-      <c r="X15">
+      <c r="AA15">
         <v>121.858</v>
       </c>
-      <c r="Y15">
-        <f>U15+V15</f>
+      <c r="AB15">
+        <f t="shared" si="0"/>
         <v>121.858</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -2258,24 +2448,35 @@
       <c r="T16">
         <v>1</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="2">
         <v>33.753599999999999</v>
       </c>
       <c r="V16">
         <v>10.252800000000001</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="3">
+        <v>0</v>
+      </c>
+      <c r="X16" s="2">
+        <f t="shared" si="1"/>
+        <v>33.753599999999999</v>
+      </c>
+      <c r="Y16" s="2">
+        <f t="shared" si="2"/>
+        <v>10.252800000000001</v>
+      </c>
+      <c r="Z16">
         <v>57.6</v>
       </c>
-      <c r="X16">
+      <c r="AA16">
         <v>44.006399999999999</v>
       </c>
-      <c r="Y16">
-        <f>U16+V16</f>
+      <c r="AB16">
+        <f t="shared" si="0"/>
         <v>44.006399999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -2336,24 +2537,35 @@
       <c r="T17">
         <v>1</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="2">
         <v>27.752959999999998</v>
       </c>
       <c r="V17">
         <v>8.4300800000000002</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X17" s="2">
+        <f t="shared" si="1"/>
+        <v>13.876479999999999</v>
+      </c>
+      <c r="Y17" s="2">
+        <f t="shared" si="2"/>
+        <v>22.306559999999998</v>
+      </c>
+      <c r="Z17">
         <v>47.36</v>
       </c>
-      <c r="X17">
+      <c r="AA17">
         <v>36.183039999999998</v>
       </c>
-      <c r="Y17">
-        <f>U17+V17</f>
+      <c r="AB17">
+        <f t="shared" si="0"/>
         <v>36.183039999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -2414,24 +2626,35 @@
       <c r="T18">
         <v>1</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="2">
         <v>96.69</v>
       </c>
       <c r="V18">
         <v>29.369999999999997</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X18" s="2">
+        <f t="shared" si="1"/>
+        <v>48.344999999999999</v>
+      </c>
+      <c r="Y18" s="2">
+        <f t="shared" si="2"/>
+        <v>77.715000000000003</v>
+      </c>
+      <c r="Z18">
         <v>165</v>
       </c>
-      <c r="X18">
+      <c r="AA18">
         <v>126.06</v>
       </c>
-      <c r="Y18">
-        <f>U18+V18</f>
+      <c r="AB18">
+        <f t="shared" si="0"/>
         <v>126.06</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -2492,24 +2715,35 @@
       <c r="T19">
         <v>1</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="2">
         <v>56.256</v>
       </c>
       <c r="V19">
         <v>17.088000000000001</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="X19" s="2">
+        <f t="shared" si="1"/>
+        <v>28.128</v>
+      </c>
+      <c r="Y19" s="2">
+        <f t="shared" si="2"/>
+        <v>45.216000000000001</v>
+      </c>
+      <c r="Z19">
         <v>96</v>
       </c>
-      <c r="X19">
+      <c r="AA19">
         <v>73.343999999999994</v>
       </c>
-      <c r="Y19">
-        <f>U19+V19</f>
+      <c r="AB19">
+        <f t="shared" si="0"/>
         <v>73.343999999999994</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -2570,24 +2804,35 @@
       <c r="T20">
         <v>1</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="2">
         <v>70.906000000000006</v>
       </c>
       <c r="V20">
         <v>21.538</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="X20" s="2">
+        <f t="shared" si="1"/>
+        <v>53.179500000000004</v>
+      </c>
+      <c r="Y20" s="2">
+        <f t="shared" si="2"/>
+        <v>39.264499999999998</v>
+      </c>
+      <c r="Z20">
         <v>121.00000000000001</v>
       </c>
-      <c r="X20">
+      <c r="AA20">
         <v>92.444000000000003</v>
       </c>
-      <c r="Y20">
-        <f>U20+V20</f>
+      <c r="AB20">
+        <f t="shared" si="0"/>
         <v>92.444000000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -2648,24 +2893,35 @@
       <c r="T21">
         <v>1</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="2">
         <v>2.1002239999999999</v>
       </c>
       <c r="V21">
         <v>0.63795199999999985</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="3">
+        <v>0</v>
+      </c>
+      <c r="X21" s="2">
+        <f t="shared" si="1"/>
+        <v>2.1002239999999999</v>
+      </c>
+      <c r="Y21" s="2">
+        <f t="shared" si="2"/>
+        <v>0.63795199999999985</v>
+      </c>
+      <c r="Z21">
         <v>3.5839999999999996</v>
       </c>
-      <c r="X21">
+      <c r="AA21">
         <v>2.7381759999999997</v>
       </c>
-      <c r="Y21">
-        <f>U21+V21</f>
+      <c r="AB21">
+        <f t="shared" si="0"/>
         <v>2.7381759999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -2726,24 +2982,35 @@
       <c r="T22">
         <v>1</v>
       </c>
-      <c r="U22">
+      <c r="U22" s="2">
         <v>19.337999999999997</v>
       </c>
       <c r="V22">
         <v>5.8739999999999997</v>
       </c>
-      <c r="W22">
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="2">
+        <f t="shared" si="1"/>
+        <v>19.337999999999997</v>
+      </c>
+      <c r="Y22" s="2">
+        <f t="shared" si="2"/>
+        <v>5.8739999999999997</v>
+      </c>
+      <c r="Z22">
         <v>190</v>
       </c>
-      <c r="X22">
+      <c r="AA22">
         <v>25.211999999999996</v>
       </c>
-      <c r="Y22">
-        <f>U22+V22</f>
+      <c r="AB22">
+        <f t="shared" si="0"/>
         <v>25.211999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2804,24 +3071,35 @@
       <c r="T23">
         <v>1</v>
       </c>
-      <c r="U23">
+      <c r="U23" s="2">
         <v>5.7006079999999999</v>
       </c>
       <c r="V23">
         <v>1.7315839999999998</v>
       </c>
-      <c r="W23">
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="2">
+        <f t="shared" si="1"/>
+        <v>5.7006079999999999</v>
+      </c>
+      <c r="Y23" s="2">
+        <f t="shared" si="2"/>
+        <v>1.7315839999999998</v>
+      </c>
+      <c r="Z23">
         <v>9.7279999999999998</v>
       </c>
-      <c r="X23">
+      <c r="AA23">
         <v>7.4321919999999997</v>
       </c>
-      <c r="Y23">
-        <f>U23+V23</f>
+      <c r="AB23">
+        <f t="shared" si="0"/>
         <v>7.4321919999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -2882,24 +3160,35 @@
       <c r="T24">
         <v>1</v>
       </c>
-      <c r="U24">
+      <c r="U24" s="2">
         <v>70.906000000000006</v>
       </c>
       <c r="V24">
         <v>21.538</v>
       </c>
-      <c r="W24">
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="2">
+        <f t="shared" si="1"/>
+        <v>70.906000000000006</v>
+      </c>
+      <c r="Y24" s="2">
+        <f t="shared" si="2"/>
+        <v>21.538</v>
+      </c>
+      <c r="Z24">
         <v>121.00000000000001</v>
       </c>
-      <c r="X24">
+      <c r="AA24">
         <v>92.444000000000003</v>
       </c>
-      <c r="Y24">
-        <f>U24+V24</f>
+      <c r="AB24">
+        <f t="shared" si="0"/>
         <v>92.444000000000003</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -2960,24 +3249,35 @@
       <c r="T25">
         <v>1</v>
       </c>
-      <c r="U25">
+      <c r="U25" s="2">
         <v>56.256</v>
       </c>
       <c r="V25">
         <v>17.088000000000001</v>
       </c>
-      <c r="W25">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+      <c r="X25" s="2">
+        <f t="shared" si="1"/>
+        <v>56.256</v>
+      </c>
+      <c r="Y25" s="2">
+        <f t="shared" si="2"/>
+        <v>17.088000000000001</v>
+      </c>
+      <c r="Z25">
         <v>96</v>
       </c>
-      <c r="X25">
+      <c r="AA25">
         <v>73.343999999999994</v>
       </c>
-      <c r="Y25">
-        <f>U25+V25</f>
+      <c r="AB25">
+        <f t="shared" si="0"/>
         <v>73.343999999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3038,24 +3338,35 @@
       <c r="T26">
         <v>1</v>
       </c>
-      <c r="U26">
+      <c r="U26" s="2">
         <v>93.466999999999999</v>
       </c>
       <c r="V26">
         <v>28.390999999999998</v>
       </c>
-      <c r="W26">
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="2">
+        <f t="shared" si="1"/>
+        <v>93.466999999999999</v>
+      </c>
+      <c r="Y26" s="2">
+        <f t="shared" si="2"/>
+        <v>28.390999999999998</v>
+      </c>
+      <c r="Z26">
         <v>159.5</v>
       </c>
-      <c r="X26">
+      <c r="AA26">
         <v>121.858</v>
       </c>
-      <c r="Y26">
-        <f>U26+V26</f>
+      <c r="AB26">
+        <f t="shared" si="0"/>
         <v>121.858</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -3116,20 +3427,31 @@
       <c r="T27">
         <v>1</v>
       </c>
-      <c r="U27">
+      <c r="U27" s="2">
         <v>27.752959999999998</v>
       </c>
       <c r="V27">
         <v>8.4300800000000002</v>
       </c>
-      <c r="W27">
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="2">
+        <f t="shared" si="1"/>
+        <v>27.752959999999998</v>
+      </c>
+      <c r="Y27" s="2">
+        <f t="shared" si="2"/>
+        <v>8.4300800000000002</v>
+      </c>
+      <c r="Z27">
         <v>47.36</v>
       </c>
-      <c r="X27">
+      <c r="AA27">
         <v>36.183039999999998</v>
       </c>
-      <c r="Y27">
-        <f>U27+V27</f>
+      <c r="AB27">
+        <f t="shared" si="0"/>
         <v>36.183039999999998</v>
       </c>
     </row>

--- a/Calculs/DataBase_template_V2.xlsx
+++ b/Calculs/DataBase_template_V2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python\Citallios\Calculs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{166E58DF-EBCD-4D16-B260-AB333CA1D54C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2112805-C85C-45D9-8B0B-6D5480F34F99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19110" yWindow="0" windowWidth="19380" windowHeight="20970" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
+    <workbookView xWindow="38290" yWindow="-70" windowWidth="38620" windowHeight="21100" xr2:uid="{8EF40DC6-95CA-4DEC-96C2-8670439CBDFF}"/>
   </bookViews>
   <sheets>
     <sheet name="DataBase_template" sheetId="1" r:id="rId1"/>
@@ -313,7 +313,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -499,6 +499,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -661,11 +667,15 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="33" borderId="0" xfId="42" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20 % - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1042,16 +1052,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{054D0C79-7D52-471E-B026-05BF71C3F576}">
-  <dimension ref="A1:AD27"/>
+  <dimension ref="A1:AR34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" topLeftCell="Q1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A8" sqref="A8:XFD8"/>
+      <selection pane="topRight" activeCell="AJ14" sqref="AJ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -1136,8 +1146,24 @@
       <c r="AB1" t="s">
         <v>36</v>
       </c>
+      <c r="AC1" s="5"/>
+      <c r="AD1" s="5"/>
+      <c r="AE1" s="5"/>
+      <c r="AF1" s="5"/>
+      <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
+      <c r="AI1" s="5"/>
+      <c r="AJ1" s="5"/>
+      <c r="AK1" s="5"/>
+      <c r="AL1" s="5"/>
+      <c r="AM1" s="5"/>
+      <c r="AN1" s="5"/>
+      <c r="AO1" s="5"/>
+      <c r="AP1" s="5"/>
+      <c r="AQ1" s="5"/>
+      <c r="AR1" s="5"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>19</v>
       </c>
@@ -1199,38 +1225,51 @@
         <v>1</v>
       </c>
       <c r="U2" s="2">
-        <v>29.253119999999999</v>
-      </c>
-      <c r="V2">
-        <v>8.8857599999999994</v>
+        <v>22</v>
+      </c>
+      <c r="V2" s="2">
+        <f>8.9</f>
+        <v>8.9</v>
       </c>
       <c r="W2" s="3">
         <v>0.5</v>
       </c>
       <c r="X2" s="2">
         <f>U2*(1-W2)</f>
-        <v>14.62656</v>
+        <v>11</v>
       </c>
       <c r="Y2" s="2">
         <f>U2*W2 + V2</f>
-        <v>23.512319999999999</v>
-      </c>
-      <c r="Z2">
-        <v>49.92</v>
+        <v>19.899999999999999</v>
+      </c>
+      <c r="Z2" s="7">
+        <v>43.050000000000004</v>
       </c>
       <c r="AA2">
         <v>38.13888</v>
       </c>
       <c r="AB2">
         <f t="shared" ref="AB2:AB27" si="0">X2+Y2</f>
-        <v>38.13888</v>
-      </c>
-      <c r="AD2">
-        <f>U2*1.35+V2*1.5</f>
-        <v>52.820352</v>
-      </c>
+        <v>30.9</v>
+      </c>
+      <c r="AC2" s="5"/>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
+      <c r="AK2" s="5"/>
+      <c r="AL2" s="6"/>
+      <c r="AM2" s="6"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="5"/>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="5"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>19</v>
       </c>
@@ -1292,34 +1331,51 @@
         <v>1</v>
       </c>
       <c r="U3" s="2">
-        <v>80.574999999999989</v>
-      </c>
-      <c r="V3">
-        <v>24.474999999999998</v>
+        <v>74</v>
+      </c>
+      <c r="V3" s="2">
+        <f>S3</f>
+        <v>0</v>
       </c>
       <c r="W3" s="3">
         <v>0.5</v>
       </c>
       <c r="X3" s="2">
         <f t="shared" ref="X3:X27" si="1">U3*(1-W3)</f>
-        <v>40.287499999999994</v>
+        <v>37</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" ref="Y3:Y27" si="2">U3*W3 + V3</f>
-        <v>64.762499999999989</v>
-      </c>
-      <c r="Z3">
-        <v>137.5</v>
+        <v>37</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>136.61250000000001</v>
       </c>
       <c r="AA3">
         <v>105.04999999999998</v>
       </c>
       <c r="AB3">
         <f t="shared" si="0"/>
-        <v>105.04999999999998</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AC3" s="5"/>
+      <c r="AD3" s="5"/>
+      <c r="AE3" s="5"/>
+      <c r="AF3" s="5"/>
+      <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
+      <c r="AI3" s="5"/>
+      <c r="AJ3" s="5"/>
+      <c r="AK3" s="5"/>
+      <c r="AL3" s="6"/>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="5"/>
+      <c r="AO3" s="5"/>
+      <c r="AP3" s="5"/>
+      <c r="AQ3" s="5"/>
+      <c r="AR3" s="5"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1381,34 +1437,50 @@
         <v>1</v>
       </c>
       <c r="U4" s="2">
-        <v>30.75328</v>
-      </c>
-      <c r="V4">
-        <v>9.3414400000000004</v>
+        <v>23.6</v>
+      </c>
+      <c r="V4" s="2">
+        <v>9.8000000000000007</v>
       </c>
       <c r="W4" s="3">
         <v>0.5</v>
       </c>
       <c r="X4" s="2">
         <f t="shared" si="1"/>
-        <v>15.37664</v>
+        <v>11.8</v>
       </c>
       <c r="Y4" s="2">
         <f t="shared" si="2"/>
-        <v>24.71808</v>
-      </c>
-      <c r="Z4">
-        <v>52.480000000000004</v>
+        <v>21.6</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>46.56</v>
       </c>
       <c r="AA4">
         <v>40.094720000000002</v>
       </c>
       <c r="AB4">
         <f t="shared" si="0"/>
-        <v>40.094720000000002</v>
-      </c>
+        <v>33.400000000000006</v>
+      </c>
+      <c r="AC4" s="5"/>
+      <c r="AD4" s="5"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="5"/>
+      <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="5"/>
+      <c r="AK4" s="5"/>
+      <c r="AL4" s="6"/>
+      <c r="AM4" s="6"/>
+      <c r="AN4" s="5"/>
+      <c r="AO4" s="5"/>
+      <c r="AP4" s="5"/>
+      <c r="AQ4" s="5"/>
+      <c r="AR4" s="5"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1470,34 +1542,50 @@
         <v>1</v>
       </c>
       <c r="U5" s="2">
-        <v>58.014000000000003</v>
-      </c>
-      <c r="V5">
-        <v>17.622000000000003</v>
+        <v>58</v>
+      </c>
+      <c r="V5" s="2">
+        <v>17.600000000000001</v>
       </c>
       <c r="W5" s="3">
         <v>0.25</v>
       </c>
       <c r="X5" s="2">
         <f t="shared" si="1"/>
-        <v>43.5105</v>
+        <v>43.5</v>
       </c>
       <c r="Y5" s="2">
         <f t="shared" si="2"/>
-        <v>32.125500000000002</v>
-      </c>
-      <c r="Z5">
-        <v>99.000000000000014</v>
+        <v>32.1</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>104.70000000000002</v>
       </c>
       <c r="AA5">
         <v>75.63600000000001</v>
       </c>
       <c r="AB5">
         <f t="shared" si="0"/>
-        <v>75.635999999999996</v>
-      </c>
+        <v>75.599999999999994</v>
+      </c>
+      <c r="AC5" s="5"/>
+      <c r="AD5" s="5"/>
+      <c r="AE5" s="5"/>
+      <c r="AF5" s="5"/>
+      <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
+      <c r="AI5" s="5"/>
+      <c r="AJ5" s="5"/>
+      <c r="AK5" s="5"/>
+      <c r="AL5" s="6"/>
+      <c r="AM5" s="6"/>
+      <c r="AN5" s="5"/>
+      <c r="AO5" s="5"/>
+      <c r="AP5" s="5"/>
+      <c r="AQ5" s="5"/>
+      <c r="AR5" s="5"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1559,34 +1647,50 @@
         <v>1</v>
       </c>
       <c r="U6" s="2">
-        <v>30.0032</v>
-      </c>
-      <c r="V6">
-        <v>9.1135999999999999</v>
+        <v>22.3</v>
+      </c>
+      <c r="V6" s="2">
+        <v>10</v>
       </c>
       <c r="W6" s="3">
         <v>0.5</v>
       </c>
       <c r="X6" s="2">
         <f t="shared" si="1"/>
-        <v>15.0016</v>
+        <v>11.15</v>
       </c>
       <c r="Y6" s="2">
         <f t="shared" si="2"/>
-        <v>24.115200000000002</v>
-      </c>
-      <c r="Z6">
-        <v>51.2</v>
+        <v>21.15</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>45.105000000000004</v>
       </c>
       <c r="AA6">
         <v>39.116799999999998</v>
       </c>
       <c r="AB6">
         <f t="shared" si="0"/>
-        <v>39.116799999999998</v>
-      </c>
+        <v>32.299999999999997</v>
+      </c>
+      <c r="AC6" s="5"/>
+      <c r="AD6" s="5"/>
+      <c r="AE6" s="5"/>
+      <c r="AF6" s="5"/>
+      <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
+      <c r="AI6" s="5"/>
+      <c r="AJ6" s="5"/>
+      <c r="AK6" s="5"/>
+      <c r="AL6" s="6"/>
+      <c r="AM6" s="6"/>
+      <c r="AN6" s="5"/>
+      <c r="AO6" s="5"/>
+      <c r="AP6" s="5"/>
+      <c r="AQ6" s="5"/>
+      <c r="AR6" s="5"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1648,34 +1752,51 @@
         <v>1</v>
       </c>
       <c r="U7" s="2">
-        <v>96.69</v>
-      </c>
-      <c r="V7">
-        <v>29.369999999999997</v>
+        <v>85</v>
+      </c>
+      <c r="V7" s="2">
+        <f>S7</f>
+        <v>0</v>
       </c>
       <c r="W7" s="3">
         <v>0.5</v>
       </c>
       <c r="X7" s="2">
         <f t="shared" si="1"/>
-        <v>48.344999999999999</v>
+        <v>42.5</v>
       </c>
       <c r="Y7" s="2">
         <f t="shared" si="2"/>
-        <v>77.715000000000003</v>
-      </c>
-      <c r="Z7">
-        <v>165</v>
+        <v>42.5</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>158.80500000000001</v>
       </c>
       <c r="AA7">
         <v>126.06</v>
       </c>
       <c r="AB7">
         <f t="shared" si="0"/>
-        <v>126.06</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="AC7" s="5"/>
+      <c r="AD7" s="5"/>
+      <c r="AE7" s="5"/>
+      <c r="AF7" s="5"/>
+      <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
+      <c r="AI7" s="5"/>
+      <c r="AJ7" s="5"/>
+      <c r="AK7" s="5"/>
+      <c r="AL7" s="6"/>
+      <c r="AM7" s="6"/>
+      <c r="AN7" s="5"/>
+      <c r="AO7" s="5"/>
+      <c r="AP7" s="5"/>
+      <c r="AQ7" s="5"/>
+      <c r="AR7" s="5"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1737,34 +1858,50 @@
         <v>1</v>
       </c>
       <c r="U8" s="2">
-        <v>52.505600000000001</v>
-      </c>
-      <c r="V8">
-        <v>15.9488</v>
+        <v>40.700000000000003</v>
+      </c>
+      <c r="V8" s="2">
+        <v>14.7</v>
       </c>
       <c r="W8" s="3">
         <v>0.5</v>
       </c>
       <c r="X8" s="2">
         <f t="shared" si="1"/>
-        <v>26.252800000000001</v>
+        <v>20.350000000000001</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" si="2"/>
-        <v>42.201599999999999</v>
-      </c>
-      <c r="Z8">
-        <v>89.600000000000009</v>
+        <v>35.049999999999997</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>76.995000000000005</v>
       </c>
       <c r="AA8">
         <v>68.454400000000007</v>
       </c>
       <c r="AB8">
         <f t="shared" si="0"/>
-        <v>68.454399999999993</v>
-      </c>
+        <v>55.4</v>
+      </c>
+      <c r="AC8" s="5"/>
+      <c r="AD8" s="5"/>
+      <c r="AE8" s="5"/>
+      <c r="AF8" s="5"/>
+      <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
+      <c r="AI8" s="5"/>
+      <c r="AJ8" s="5"/>
+      <c r="AK8" s="5"/>
+      <c r="AL8" s="6"/>
+      <c r="AM8" s="6"/>
+      <c r="AN8" s="5"/>
+      <c r="AO8" s="5"/>
+      <c r="AP8" s="5"/>
+      <c r="AQ8" s="5"/>
+      <c r="AR8" s="5"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>33</v>
       </c>
@@ -1826,34 +1963,50 @@
         <v>1</v>
       </c>
       <c r="U9" s="2">
-        <v>70.906000000000006</v>
+        <v>70.900000000000006</v>
       </c>
       <c r="V9">
-        <v>21.538</v>
+        <v>29</v>
       </c>
       <c r="W9" s="3">
         <v>0.25</v>
       </c>
       <c r="X9" s="2">
         <f t="shared" si="1"/>
-        <v>53.179500000000004</v>
+        <v>53.175000000000004</v>
       </c>
       <c r="Y9" s="2">
         <f t="shared" si="2"/>
-        <v>39.264499999999998</v>
-      </c>
-      <c r="Z9">
-        <v>121.00000000000001</v>
+        <v>46.725000000000001</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>139.21500000000003</v>
       </c>
       <c r="AA9">
         <v>92.444000000000003</v>
       </c>
       <c r="AB9">
         <f t="shared" si="0"/>
-        <v>92.444000000000003</v>
-      </c>
+        <v>99.9</v>
+      </c>
+      <c r="AC9" s="5"/>
+      <c r="AD9" s="5"/>
+      <c r="AE9" s="5"/>
+      <c r="AF9" s="5"/>
+      <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
+      <c r="AI9" s="5"/>
+      <c r="AJ9" s="5"/>
+      <c r="AK9" s="5"/>
+      <c r="AL9" s="6"/>
+      <c r="AM9" s="5"/>
+      <c r="AN9" s="5"/>
+      <c r="AO9" s="5"/>
+      <c r="AP9" s="5"/>
+      <c r="AQ9" s="5"/>
+      <c r="AR9" s="5"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>33</v>
       </c>
@@ -1915,34 +2068,50 @@
         <v>1</v>
       </c>
       <c r="U10" s="2">
-        <v>5.8506239999999998</v>
-      </c>
-      <c r="V10">
-        <v>1.7771519999999998</v>
+        <v>4.2</v>
+      </c>
+      <c r="V10" s="2">
+        <v>7</v>
       </c>
       <c r="W10" s="3">
         <v>0</v>
       </c>
       <c r="X10" s="2">
         <f t="shared" si="1"/>
-        <v>5.8506239999999998</v>
+        <v>4.2</v>
       </c>
       <c r="Y10" s="2">
         <f t="shared" si="2"/>
-        <v>1.7771519999999998</v>
-      </c>
-      <c r="Z10">
-        <v>9.984</v>
+        <v>7</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>16.170000000000002</v>
       </c>
       <c r="AA10">
         <v>7.6277759999999999</v>
       </c>
       <c r="AB10">
         <f t="shared" si="0"/>
-        <v>7.6277759999999999</v>
-      </c>
+        <v>11.2</v>
+      </c>
+      <c r="AC10" s="5"/>
+      <c r="AD10" s="5"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="5"/>
+      <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="5"/>
+      <c r="AK10" s="5"/>
+      <c r="AL10" s="6"/>
+      <c r="AM10" s="6"/>
+      <c r="AN10" s="5"/>
+      <c r="AO10" s="5"/>
+      <c r="AP10" s="5"/>
+      <c r="AQ10" s="5"/>
+      <c r="AR10" s="5"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -2004,34 +2173,50 @@
         <v>1</v>
       </c>
       <c r="U11" s="2">
-        <v>19.337999999999997</v>
+        <v>17</v>
       </c>
       <c r="V11">
-        <v>5.8739999999999997</v>
+        <v>13</v>
       </c>
       <c r="W11" s="3">
         <v>0</v>
       </c>
       <c r="X11" s="2">
         <f t="shared" si="1"/>
-        <v>19.337999999999997</v>
+        <v>17</v>
       </c>
       <c r="Y11" s="2">
         <f t="shared" si="2"/>
-        <v>5.8739999999999997</v>
-      </c>
-      <c r="Z11">
-        <v>33</v>
+        <v>13</v>
+      </c>
+      <c r="Z11" s="7">
+        <v>42.45</v>
       </c>
       <c r="AA11">
         <v>25.211999999999996</v>
       </c>
       <c r="AB11">
         <f t="shared" si="0"/>
-        <v>25.211999999999996</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AC11" s="5"/>
+      <c r="AD11" s="5"/>
+      <c r="AE11" s="5"/>
+      <c r="AF11" s="5"/>
+      <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
+      <c r="AI11" s="5"/>
+      <c r="AJ11" s="5"/>
+      <c r="AK11" s="5"/>
+      <c r="AL11" s="6"/>
+      <c r="AM11" s="5"/>
+      <c r="AN11" s="5"/>
+      <c r="AO11" s="5"/>
+      <c r="AP11" s="5"/>
+      <c r="AQ11" s="5"/>
+      <c r="AR11" s="5"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -2093,34 +2278,50 @@
         <v>1</v>
       </c>
       <c r="U12" s="2">
-        <v>6.7507199999999994</v>
-      </c>
-      <c r="V12">
-        <v>2.0505599999999999</v>
+        <v>5</v>
+      </c>
+      <c r="V12" s="2">
+        <v>7</v>
       </c>
       <c r="W12" s="3">
         <v>0</v>
       </c>
       <c r="X12" s="2">
         <f t="shared" si="1"/>
-        <v>6.7507199999999994</v>
+        <v>5</v>
       </c>
       <c r="Y12" s="2">
         <f t="shared" si="2"/>
-        <v>2.0505599999999999</v>
-      </c>
-      <c r="Z12">
-        <v>11.52</v>
+        <v>7</v>
+      </c>
+      <c r="Z12" s="7">
+        <v>17.25</v>
       </c>
       <c r="AA12">
         <v>8.8012799999999984</v>
       </c>
       <c r="AB12">
         <f t="shared" si="0"/>
-        <v>8.8012799999999984</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="AC12" s="5"/>
+      <c r="AD12" s="5"/>
+      <c r="AE12" s="5"/>
+      <c r="AF12" s="5"/>
+      <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
+      <c r="AI12" s="5"/>
+      <c r="AJ12" s="5"/>
+      <c r="AK12" s="5"/>
+      <c r="AL12" s="6"/>
+      <c r="AM12" s="6"/>
+      <c r="AN12" s="5"/>
+      <c r="AO12" s="5"/>
+      <c r="AP12" s="5"/>
+      <c r="AQ12" s="5"/>
+      <c r="AR12" s="5"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -2182,34 +2383,50 @@
         <v>1</v>
       </c>
       <c r="U13" s="2">
-        <v>70.906000000000006</v>
+        <v>61.5</v>
       </c>
       <c r="V13">
-        <v>21.538</v>
+        <v>21.5</v>
       </c>
       <c r="W13" s="3">
         <v>0</v>
       </c>
       <c r="X13" s="2">
         <f t="shared" si="1"/>
-        <v>70.906000000000006</v>
+        <v>61.5</v>
       </c>
       <c r="Y13" s="2">
         <f t="shared" si="2"/>
-        <v>21.538</v>
-      </c>
-      <c r="Z13">
-        <v>121.00000000000001</v>
+        <v>21.5</v>
+      </c>
+      <c r="Z13" s="7">
+        <v>115.27500000000001</v>
       </c>
       <c r="AA13">
         <v>92.444000000000003</v>
       </c>
       <c r="AB13">
         <f t="shared" si="0"/>
-        <v>92.444000000000003</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="AC13" s="5"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AK13" s="5"/>
+      <c r="AL13" s="6"/>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="5"/>
+      <c r="AQ13" s="5"/>
+      <c r="AR13" s="5"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -2271,34 +2488,50 @@
         <v>1</v>
       </c>
       <c r="U14" s="2">
-        <v>42.754560000000005</v>
-      </c>
-      <c r="V14">
-        <v>12.986880000000001</v>
+        <v>33</v>
+      </c>
+      <c r="V14" s="2">
+        <v>12.7</v>
       </c>
       <c r="W14" s="3">
         <v>0</v>
       </c>
       <c r="X14" s="2">
         <f t="shared" si="1"/>
-        <v>42.754560000000005</v>
+        <v>33</v>
       </c>
       <c r="Y14" s="2">
         <f t="shared" si="2"/>
-        <v>12.986880000000001</v>
-      </c>
-      <c r="Z14">
-        <v>72.960000000000008</v>
+        <v>12.7</v>
+      </c>
+      <c r="Z14" s="7">
+        <v>63.6</v>
       </c>
       <c r="AA14">
         <v>55.741440000000004</v>
       </c>
       <c r="AB14">
         <f t="shared" si="0"/>
-        <v>55.741440000000004</v>
-      </c>
+        <v>45.7</v>
+      </c>
+      <c r="AC14" s="5"/>
+      <c r="AD14" s="5"/>
+      <c r="AE14" s="5"/>
+      <c r="AF14" s="5"/>
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5"/>
+      <c r="AK14" s="5"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="5"/>
+      <c r="AO14" s="5"/>
+      <c r="AP14" s="5"/>
+      <c r="AQ14" s="5"/>
+      <c r="AR14" s="5"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -2360,34 +2593,50 @@
         <v>1</v>
       </c>
       <c r="U15" s="2">
-        <v>93.466999999999999</v>
+        <v>90</v>
       </c>
       <c r="V15">
-        <v>28.390999999999998</v>
+        <v>29</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
       </c>
       <c r="X15" s="2">
         <f t="shared" si="1"/>
-        <v>93.466999999999999</v>
+        <v>90</v>
       </c>
       <c r="Y15" s="2">
         <f t="shared" si="2"/>
-        <v>28.390999999999998</v>
-      </c>
-      <c r="Z15">
-        <v>159.5</v>
+        <v>29</v>
+      </c>
+      <c r="Z15" s="7">
+        <v>165</v>
       </c>
       <c r="AA15">
         <v>121.858</v>
       </c>
       <c r="AB15">
         <f t="shared" si="0"/>
-        <v>121.858</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="AC15" s="5"/>
+      <c r="AD15" s="5"/>
+      <c r="AE15" s="5"/>
+      <c r="AF15" s="5"/>
+      <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
+      <c r="AI15" s="5"/>
+      <c r="AJ15" s="5"/>
+      <c r="AK15" s="5"/>
+      <c r="AL15" s="6"/>
+      <c r="AM15" s="5"/>
+      <c r="AN15" s="5"/>
+      <c r="AO15" s="5"/>
+      <c r="AP15" s="5"/>
+      <c r="AQ15" s="5"/>
+      <c r="AR15" s="5"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>33</v>
       </c>
@@ -2449,34 +2698,50 @@
         <v>1</v>
       </c>
       <c r="U16" s="2">
-        <v>33.753599999999999</v>
-      </c>
-      <c r="V16">
-        <v>10.252800000000001</v>
+        <v>25</v>
+      </c>
+      <c r="V16" s="2">
+        <v>10.4</v>
       </c>
       <c r="W16" s="3">
         <v>0</v>
       </c>
       <c r="X16" s="2">
         <f t="shared" si="1"/>
-        <v>33.753599999999999</v>
+        <v>25</v>
       </c>
       <c r="Y16" s="2">
         <f t="shared" si="2"/>
-        <v>10.252800000000001</v>
-      </c>
-      <c r="Z16">
-        <v>57.6</v>
+        <v>10.4</v>
+      </c>
+      <c r="Z16" s="7">
+        <v>49.35</v>
       </c>
       <c r="AA16">
         <v>44.006399999999999</v>
       </c>
       <c r="AB16">
         <f t="shared" si="0"/>
-        <v>44.006399999999999</v>
-      </c>
+        <v>35.4</v>
+      </c>
+      <c r="AC16" s="5"/>
+      <c r="AD16" s="5"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="5"/>
+      <c r="AG16" s="5"/>
+      <c r="AH16" s="5"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="5"/>
+      <c r="AK16" s="5"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
+      <c r="AN16" s="5"/>
+      <c r="AO16" s="5"/>
+      <c r="AP16" s="5"/>
+      <c r="AQ16" s="5"/>
+      <c r="AR16" s="5"/>
     </row>
-    <row r="17" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -2538,34 +2803,50 @@
         <v>1</v>
       </c>
       <c r="U17" s="2">
-        <v>27.752959999999998</v>
-      </c>
-      <c r="V17">
-        <v>8.4300800000000002</v>
+        <v>20.6</v>
+      </c>
+      <c r="V17" s="2">
+        <v>10</v>
       </c>
       <c r="W17" s="3">
         <v>0.5</v>
       </c>
       <c r="X17" s="2">
         <f t="shared" si="1"/>
-        <v>13.876479999999999</v>
+        <v>10.3</v>
       </c>
       <c r="Y17" s="2">
         <f t="shared" si="2"/>
-        <v>22.306559999999998</v>
-      </c>
-      <c r="Z17">
-        <v>47.36</v>
+        <v>20.3</v>
+      </c>
+      <c r="Z17" s="7">
+        <v>42.81</v>
       </c>
       <c r="AA17">
         <v>36.183039999999998</v>
       </c>
       <c r="AB17">
         <f t="shared" si="0"/>
-        <v>36.183039999999998</v>
-      </c>
+        <v>30.6</v>
+      </c>
+      <c r="AC17" s="5"/>
+      <c r="AD17" s="5"/>
+      <c r="AE17" s="5"/>
+      <c r="AF17" s="5"/>
+      <c r="AG17" s="5"/>
+      <c r="AH17" s="5"/>
+      <c r="AI17" s="5"/>
+      <c r="AJ17" s="5"/>
+      <c r="AK17" s="5"/>
+      <c r="AL17" s="6"/>
+      <c r="AM17" s="6"/>
+      <c r="AN17" s="5"/>
+      <c r="AO17" s="5"/>
+      <c r="AP17" s="5"/>
+      <c r="AQ17" s="5"/>
+      <c r="AR17" s="5"/>
     </row>
-    <row r="18" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -2627,34 +2908,50 @@
         <v>1</v>
       </c>
       <c r="U18" s="2">
-        <v>96.69</v>
+        <v>85.5</v>
       </c>
       <c r="V18">
-        <v>29.369999999999997</v>
+        <v>29.4</v>
       </c>
       <c r="W18" s="3">
         <v>0.5</v>
       </c>
       <c r="X18" s="2">
         <f t="shared" si="1"/>
-        <v>48.344999999999999</v>
+        <v>42.75</v>
       </c>
       <c r="Y18" s="2">
         <f t="shared" si="2"/>
-        <v>77.715000000000003</v>
-      </c>
-      <c r="Z18">
-        <v>165</v>
+        <v>72.150000000000006</v>
+      </c>
+      <c r="Z18" s="7">
+        <v>159.52500000000001</v>
       </c>
       <c r="AA18">
         <v>126.06</v>
       </c>
       <c r="AB18">
         <f t="shared" si="0"/>
-        <v>126.06</v>
-      </c>
+        <v>114.9</v>
+      </c>
+      <c r="AC18" s="5"/>
+      <c r="AD18" s="5"/>
+      <c r="AE18" s="5"/>
+      <c r="AF18" s="5"/>
+      <c r="AG18" s="5"/>
+      <c r="AH18" s="5"/>
+      <c r="AI18" s="5"/>
+      <c r="AJ18" s="5"/>
+      <c r="AK18" s="5"/>
+      <c r="AL18" s="6"/>
+      <c r="AM18" s="5"/>
+      <c r="AN18" s="5"/>
+      <c r="AO18" s="5"/>
+      <c r="AP18" s="5"/>
+      <c r="AQ18" s="5"/>
+      <c r="AR18" s="5"/>
     </row>
-    <row r="19" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>34</v>
       </c>
@@ -2716,34 +3013,50 @@
         <v>1</v>
       </c>
       <c r="U19" s="2">
-        <v>56.256</v>
-      </c>
-      <c r="V19">
-        <v>17.088000000000001</v>
+        <v>43.2</v>
+      </c>
+      <c r="V19" s="2">
+        <v>16.100000000000001</v>
       </c>
       <c r="W19" s="3">
         <v>0.5</v>
       </c>
       <c r="X19" s="2">
         <f t="shared" si="1"/>
-        <v>28.128</v>
+        <v>21.6</v>
       </c>
       <c r="Y19" s="2">
         <f t="shared" si="2"/>
-        <v>45.216000000000001</v>
-      </c>
-      <c r="Z19">
-        <v>96</v>
+        <v>37.700000000000003</v>
+      </c>
+      <c r="Z19" s="7">
+        <v>82.470000000000013</v>
       </c>
       <c r="AA19">
         <v>73.343999999999994</v>
       </c>
       <c r="AB19">
         <f t="shared" si="0"/>
-        <v>73.343999999999994</v>
-      </c>
+        <v>59.300000000000004</v>
+      </c>
+      <c r="AC19" s="5"/>
+      <c r="AD19" s="5"/>
+      <c r="AE19" s="5"/>
+      <c r="AF19" s="5"/>
+      <c r="AG19" s="5"/>
+      <c r="AH19" s="5"/>
+      <c r="AI19" s="5"/>
+      <c r="AJ19" s="5"/>
+      <c r="AK19" s="5"/>
+      <c r="AL19" s="6"/>
+      <c r="AM19" s="6"/>
+      <c r="AN19" s="5"/>
+      <c r="AO19" s="5"/>
+      <c r="AP19" s="5"/>
+      <c r="AQ19" s="5"/>
+      <c r="AR19" s="5"/>
     </row>
-    <row r="20" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -2805,34 +3118,50 @@
         <v>1</v>
       </c>
       <c r="U20" s="2">
-        <v>70.906000000000006</v>
-      </c>
-      <c r="V20">
-        <v>21.538</v>
+        <v>70</v>
+      </c>
+      <c r="V20" s="4">
+        <v>21.5</v>
       </c>
       <c r="W20" s="3">
         <v>0.25</v>
       </c>
       <c r="X20" s="2">
         <f t="shared" si="1"/>
-        <v>53.179500000000004</v>
+        <v>52.5</v>
       </c>
       <c r="Y20" s="2">
         <f t="shared" si="2"/>
-        <v>39.264499999999998</v>
-      </c>
-      <c r="Z20">
-        <v>121.00000000000001</v>
+        <v>39</v>
+      </c>
+      <c r="Z20" s="7">
+        <v>126.75</v>
       </c>
       <c r="AA20">
         <v>92.444000000000003</v>
       </c>
       <c r="AB20">
         <f t="shared" si="0"/>
-        <v>92.444000000000003</v>
-      </c>
+        <v>91.5</v>
+      </c>
+      <c r="AC20" s="5"/>
+      <c r="AD20" s="5"/>
+      <c r="AE20" s="5"/>
+      <c r="AF20" s="5"/>
+      <c r="AG20" s="5"/>
+      <c r="AH20" s="5"/>
+      <c r="AI20" s="5"/>
+      <c r="AJ20" s="5"/>
+      <c r="AK20" s="5"/>
+      <c r="AL20" s="6"/>
+      <c r="AM20" s="5"/>
+      <c r="AN20" s="5"/>
+      <c r="AO20" s="5"/>
+      <c r="AP20" s="5"/>
+      <c r="AQ20" s="5"/>
+      <c r="AR20" s="5"/>
     </row>
-    <row r="21" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>34</v>
       </c>
@@ -2894,34 +3223,50 @@
         <v>1</v>
       </c>
       <c r="U21" s="2">
-        <v>2.1002239999999999</v>
+        <v>1.6</v>
       </c>
       <c r="V21">
-        <v>0.63795199999999985</v>
+        <v>6.5</v>
       </c>
       <c r="W21" s="3">
         <v>0</v>
       </c>
       <c r="X21" s="2">
         <f t="shared" si="1"/>
-        <v>2.1002239999999999</v>
+        <v>1.6</v>
       </c>
       <c r="Y21" s="2">
         <f t="shared" si="2"/>
-        <v>0.63795199999999985</v>
-      </c>
-      <c r="Z21">
-        <v>3.5839999999999996</v>
+        <v>6.5</v>
+      </c>
+      <c r="Z21" s="7">
+        <v>11.91</v>
       </c>
       <c r="AA21">
         <v>2.7381759999999997</v>
       </c>
       <c r="AB21">
         <f t="shared" si="0"/>
-        <v>2.7381759999999997</v>
-      </c>
+        <v>8.1</v>
+      </c>
+      <c r="AC21" s="5"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="5"/>
+      <c r="AF21" s="5"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="6"/>
+      <c r="AM21" s="5"/>
+      <c r="AN21" s="5"/>
+      <c r="AO21" s="5"/>
+      <c r="AP21" s="5"/>
+      <c r="AQ21" s="5"/>
+      <c r="AR21" s="5"/>
     </row>
-    <row r="22" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -2983,34 +3328,50 @@
         <v>1</v>
       </c>
       <c r="U22" s="2">
-        <v>19.337999999999997</v>
+        <v>15.6</v>
       </c>
       <c r="V22">
-        <v>5.8739999999999997</v>
+        <v>7</v>
       </c>
       <c r="W22" s="3">
         <v>0</v>
       </c>
       <c r="X22" s="2">
         <f t="shared" si="1"/>
-        <v>19.337999999999997</v>
+        <v>15.6</v>
       </c>
       <c r="Y22" s="2">
         <f t="shared" si="2"/>
-        <v>5.8739999999999997</v>
-      </c>
-      <c r="Z22">
-        <v>190</v>
+        <v>7</v>
+      </c>
+      <c r="Z22" s="7">
+        <v>31.560000000000002</v>
       </c>
       <c r="AA22">
         <v>25.211999999999996</v>
       </c>
       <c r="AB22">
         <f t="shared" si="0"/>
-        <v>25.211999999999996</v>
-      </c>
+        <v>22.6</v>
+      </c>
+      <c r="AC22" s="5"/>
+      <c r="AD22" s="5"/>
+      <c r="AE22" s="5"/>
+      <c r="AF22" s="5"/>
+      <c r="AG22" s="5"/>
+      <c r="AH22" s="5"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="5"/>
+      <c r="AK22" s="5"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="5"/>
+      <c r="AO22" s="5"/>
+      <c r="AP22" s="5"/>
+      <c r="AQ22" s="5"/>
+      <c r="AR22" s="5"/>
     </row>
-    <row r="23" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -3072,34 +3433,50 @@
         <v>1</v>
       </c>
       <c r="U23" s="2">
-        <v>5.7006079999999999</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="V23">
-        <v>1.7315839999999998</v>
+        <v>6.5</v>
       </c>
       <c r="W23" s="3">
         <v>0</v>
       </c>
       <c r="X23" s="2">
         <f t="shared" si="1"/>
-        <v>5.7006079999999999</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="Y23" s="2">
         <f t="shared" si="2"/>
-        <v>1.7315839999999998</v>
-      </c>
-      <c r="Z23">
-        <v>9.7279999999999998</v>
+        <v>6.5</v>
+      </c>
+      <c r="Z23" s="7">
+        <v>15.690000000000001</v>
       </c>
       <c r="AA23">
         <v>7.4321919999999997</v>
       </c>
       <c r="AB23">
         <f t="shared" si="0"/>
-        <v>7.4321919999999997</v>
-      </c>
+        <v>10.9</v>
+      </c>
+      <c r="AC23" s="5"/>
+      <c r="AD23" s="5"/>
+      <c r="AE23" s="5"/>
+      <c r="AF23" s="5"/>
+      <c r="AG23" s="5"/>
+      <c r="AH23" s="5"/>
+      <c r="AI23" s="5"/>
+      <c r="AJ23" s="5"/>
+      <c r="AK23" s="5"/>
+      <c r="AL23" s="6"/>
+      <c r="AM23" s="5"/>
+      <c r="AN23" s="5"/>
+      <c r="AO23" s="5"/>
+      <c r="AP23" s="5"/>
+      <c r="AQ23" s="5"/>
+      <c r="AR23" s="5"/>
     </row>
-    <row r="24" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>34</v>
       </c>
@@ -3161,34 +3538,50 @@
         <v>1</v>
       </c>
       <c r="U24" s="2">
-        <v>70.906000000000006</v>
+        <v>70</v>
       </c>
       <c r="V24">
-        <v>21.538</v>
+        <v>21.5</v>
       </c>
       <c r="W24" s="3">
         <v>0</v>
       </c>
       <c r="X24" s="2">
         <f t="shared" si="1"/>
-        <v>70.906000000000006</v>
+        <v>70</v>
       </c>
       <c r="Y24" s="2">
         <f t="shared" si="2"/>
-        <v>21.538</v>
-      </c>
-      <c r="Z24">
-        <v>121.00000000000001</v>
+        <v>21.5</v>
+      </c>
+      <c r="Z24" s="7">
+        <v>126.75</v>
       </c>
       <c r="AA24">
         <v>92.444000000000003</v>
       </c>
       <c r="AB24">
         <f t="shared" si="0"/>
-        <v>92.444000000000003</v>
-      </c>
+        <v>91.5</v>
+      </c>
+      <c r="AC24" s="5"/>
+      <c r="AD24" s="5"/>
+      <c r="AE24" s="5"/>
+      <c r="AF24" s="5"/>
+      <c r="AG24" s="5"/>
+      <c r="AH24" s="5"/>
+      <c r="AI24" s="5"/>
+      <c r="AJ24" s="5"/>
+      <c r="AK24" s="5"/>
+      <c r="AL24" s="6"/>
+      <c r="AM24" s="5"/>
+      <c r="AN24" s="5"/>
+      <c r="AO24" s="5"/>
+      <c r="AP24" s="5"/>
+      <c r="AQ24" s="5"/>
+      <c r="AR24" s="5"/>
     </row>
-    <row r="25" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>34</v>
       </c>
@@ -3250,34 +3643,50 @@
         <v>1</v>
       </c>
       <c r="U25" s="2">
-        <v>56.256</v>
+        <v>41.3</v>
       </c>
       <c r="V25">
-        <v>17.088000000000001</v>
+        <v>15.5</v>
       </c>
       <c r="W25" s="3">
         <v>0</v>
       </c>
       <c r="X25" s="2">
         <f t="shared" si="1"/>
-        <v>56.256</v>
+        <v>41.3</v>
       </c>
       <c r="Y25" s="2">
         <f t="shared" si="2"/>
-        <v>17.088000000000001</v>
-      </c>
-      <c r="Z25">
-        <v>96</v>
+        <v>15.5</v>
+      </c>
+      <c r="Z25" s="7">
+        <v>79.004999999999995</v>
       </c>
       <c r="AA25">
         <v>73.343999999999994</v>
       </c>
       <c r="AB25">
         <f t="shared" si="0"/>
-        <v>73.343999999999994</v>
-      </c>
+        <v>56.8</v>
+      </c>
+      <c r="AC25" s="5"/>
+      <c r="AD25" s="5"/>
+      <c r="AE25" s="5"/>
+      <c r="AF25" s="5"/>
+      <c r="AG25" s="5"/>
+      <c r="AH25" s="5"/>
+      <c r="AI25" s="5"/>
+      <c r="AJ25" s="5"/>
+      <c r="AK25" s="5"/>
+      <c r="AL25" s="6"/>
+      <c r="AM25" s="5"/>
+      <c r="AN25" s="5"/>
+      <c r="AO25" s="5"/>
+      <c r="AP25" s="5"/>
+      <c r="AQ25" s="5"/>
+      <c r="AR25" s="5"/>
     </row>
-    <row r="26" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>34</v>
       </c>
@@ -3339,34 +3748,50 @@
         <v>1</v>
       </c>
       <c r="U26" s="2">
-        <v>93.466999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="V26">
-        <v>28.390999999999998</v>
+        <v>28.4</v>
       </c>
       <c r="W26" s="3">
         <v>0</v>
       </c>
       <c r="X26" s="2">
         <f t="shared" si="1"/>
-        <v>93.466999999999999</v>
+        <v>85.5</v>
       </c>
       <c r="Y26" s="2">
         <f t="shared" si="2"/>
-        <v>28.390999999999998</v>
-      </c>
-      <c r="Z26">
-        <v>159.5</v>
+        <v>28.4</v>
+      </c>
+      <c r="Z26" s="7">
+        <v>158.02500000000001</v>
       </c>
       <c r="AA26">
         <v>121.858</v>
       </c>
       <c r="AB26">
         <f t="shared" si="0"/>
-        <v>121.858</v>
-      </c>
+        <v>113.9</v>
+      </c>
+      <c r="AC26" s="5"/>
+      <c r="AD26" s="5"/>
+      <c r="AE26" s="5"/>
+      <c r="AF26" s="5"/>
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5"/>
+      <c r="AK26" s="5"/>
+      <c r="AL26" s="6"/>
+      <c r="AM26" s="5"/>
+      <c r="AN26" s="5"/>
+      <c r="AO26" s="5"/>
+      <c r="AP26" s="5"/>
+      <c r="AQ26" s="5"/>
+      <c r="AR26" s="5"/>
     </row>
-    <row r="27" spans="1:28" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:44" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>34</v>
       </c>
@@ -3428,32 +3853,176 @@
         <v>1</v>
       </c>
       <c r="U27" s="2">
-        <v>27.752959999999998</v>
+        <v>21</v>
       </c>
       <c r="V27">
-        <v>8.4300800000000002</v>
+        <v>10</v>
       </c>
       <c r="W27" s="3">
         <v>0</v>
       </c>
       <c r="X27" s="2">
         <f t="shared" si="1"/>
-        <v>27.752959999999998</v>
+        <v>21</v>
       </c>
       <c r="Y27" s="2">
         <f t="shared" si="2"/>
-        <v>8.4300800000000002</v>
-      </c>
-      <c r="Z27">
-        <v>47.36</v>
+        <v>10</v>
+      </c>
+      <c r="Z27" s="7">
+        <v>43.35</v>
       </c>
       <c r="AA27">
         <v>36.183039999999998</v>
       </c>
       <c r="AB27">
         <f t="shared" si="0"/>
-        <v>36.183039999999998</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="AC27" s="5"/>
+      <c r="AD27" s="5"/>
+      <c r="AE27" s="5"/>
+      <c r="AF27" s="5"/>
+      <c r="AG27" s="5"/>
+      <c r="AH27" s="5"/>
+      <c r="AI27" s="5"/>
+      <c r="AJ27" s="5"/>
+      <c r="AK27" s="5"/>
+      <c r="AL27" s="6"/>
+      <c r="AM27" s="5"/>
+      <c r="AN27" s="5"/>
+      <c r="AO27" s="5"/>
+      <c r="AP27" s="5"/>
+      <c r="AQ27" s="5"/>
+      <c r="AR27" s="5"/>
+    </row>
+    <row r="28" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="U28" s="2"/>
+      <c r="AC28" s="5"/>
+      <c r="AD28" s="5"/>
+      <c r="AE28" s="5"/>
+      <c r="AF28" s="5"/>
+      <c r="AG28" s="5"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="5"/>
+      <c r="AJ28" s="5"/>
+      <c r="AK28" s="5"/>
+      <c r="AL28" s="5"/>
+      <c r="AM28" s="5"/>
+      <c r="AN28" s="5"/>
+      <c r="AO28" s="5"/>
+      <c r="AP28" s="5"/>
+      <c r="AQ28" s="5"/>
+      <c r="AR28" s="5"/>
+    </row>
+    <row r="29" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="U29" s="2"/>
+      <c r="AC29" s="5"/>
+      <c r="AD29" s="5"/>
+      <c r="AE29" s="5"/>
+      <c r="AF29" s="5"/>
+      <c r="AG29" s="5"/>
+      <c r="AH29" s="5"/>
+      <c r="AI29" s="5"/>
+      <c r="AJ29" s="5"/>
+      <c r="AK29" s="5"/>
+      <c r="AL29" s="5"/>
+      <c r="AM29" s="5"/>
+      <c r="AN29" s="5"/>
+      <c r="AO29" s="5"/>
+      <c r="AP29" s="5"/>
+      <c r="AQ29" s="5"/>
+      <c r="AR29" s="5"/>
+    </row>
+    <row r="30" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="AC30" s="5"/>
+      <c r="AD30" s="5"/>
+      <c r="AE30" s="5"/>
+      <c r="AF30" s="5"/>
+      <c r="AG30" s="5"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
+      <c r="AJ30" s="5"/>
+      <c r="AK30" s="5"/>
+      <c r="AL30" s="5"/>
+      <c r="AM30" s="5"/>
+      <c r="AN30" s="5"/>
+      <c r="AO30" s="5"/>
+      <c r="AP30" s="5"/>
+      <c r="AQ30" s="5"/>
+      <c r="AR30" s="5"/>
+    </row>
+    <row r="31" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="AC31" s="5"/>
+      <c r="AD31" s="5"/>
+      <c r="AE31" s="5"/>
+      <c r="AF31" s="5"/>
+      <c r="AG31" s="5"/>
+      <c r="AH31" s="5"/>
+      <c r="AI31" s="5"/>
+      <c r="AJ31" s="5"/>
+      <c r="AK31" s="5"/>
+      <c r="AL31" s="5"/>
+      <c r="AM31" s="5"/>
+      <c r="AN31" s="5"/>
+      <c r="AO31" s="5"/>
+      <c r="AP31" s="5"/>
+      <c r="AQ31" s="5"/>
+      <c r="AR31" s="5"/>
+    </row>
+    <row r="32" spans="1:44" x14ac:dyDescent="0.35">
+      <c r="AC32" s="5"/>
+      <c r="AD32" s="5"/>
+      <c r="AE32" s="5"/>
+      <c r="AF32" s="5"/>
+      <c r="AG32" s="5"/>
+      <c r="AH32" s="5"/>
+      <c r="AI32" s="5"/>
+      <c r="AJ32" s="5"/>
+      <c r="AK32" s="5"/>
+      <c r="AL32" s="5"/>
+      <c r="AM32" s="5"/>
+      <c r="AN32" s="5"/>
+      <c r="AO32" s="5"/>
+      <c r="AP32" s="5"/>
+      <c r="AQ32" s="5"/>
+      <c r="AR32" s="5"/>
+    </row>
+    <row r="33" spans="29:44" x14ac:dyDescent="0.35">
+      <c r="AC33" s="5"/>
+      <c r="AD33" s="5"/>
+      <c r="AE33" s="5"/>
+      <c r="AF33" s="5"/>
+      <c r="AG33" s="5"/>
+      <c r="AH33" s="5"/>
+      <c r="AI33" s="5"/>
+      <c r="AJ33" s="5"/>
+      <c r="AK33" s="5"/>
+      <c r="AL33" s="5"/>
+      <c r="AM33" s="5"/>
+      <c r="AN33" s="5"/>
+      <c r="AO33" s="5"/>
+      <c r="AP33" s="5"/>
+      <c r="AQ33" s="5"/>
+      <c r="AR33" s="5"/>
+    </row>
+    <row r="34" spans="29:44" x14ac:dyDescent="0.35">
+      <c r="AC34" s="5"/>
+      <c r="AD34" s="5"/>
+      <c r="AE34" s="5"/>
+      <c r="AF34" s="5"/>
+      <c r="AG34" s="5"/>
+      <c r="AH34" s="5"/>
+      <c r="AI34" s="5"/>
+      <c r="AJ34" s="5"/>
+      <c r="AK34" s="5"/>
+      <c r="AL34" s="5"/>
+      <c r="AM34" s="5"/>
+      <c r="AN34" s="5"/>
+      <c r="AO34" s="5"/>
+      <c r="AP34" s="5"/>
+      <c r="AQ34" s="5"/>
+      <c r="AR34" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
